--- a/model_planning.xlsx
+++ b/model_planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
   <si>
     <t>MATRICULE</t>
   </si>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t xml:space="preserve"> ST0459 </t>
+  </si>
+  <si>
+    <t>ST0505</t>
+  </si>
+  <si>
+    <t>ST0502</t>
+  </si>
+  <si>
+    <t>ST0500</t>
+  </si>
+  <si>
+    <t>ST0489</t>
+  </si>
+  <si>
+    <t>ST0485</t>
   </si>
 </sst>
 </file>
@@ -386,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,6 +591,162 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/model_planning.xlsx
+++ b/model_planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="21">
   <si>
     <t>MATRICULE</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>ST0485</t>
+  </si>
+  <si>
+    <t>ST0560</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,85 +518,85 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -619,77 +622,77 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
@@ -697,54 +700,54 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/model_planning.xlsx
+++ b/model_planning.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,19 +524,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -550,19 +550,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -576,19 +576,19 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -602,19 +602,19 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -628,19 +628,19 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -654,19 +654,19 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
@@ -680,19 +680,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
@@ -706,19 +706,19 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -732,19 +732,19 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
